--- a/features2prediction/weebit/regression_evaluation.xlsx
+++ b/features2prediction/weebit/regression_evaluation.xlsx
@@ -32,10 +32,10 @@
     <t>mean_squared_error</t>
   </si>
   <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
     <t>MLP 128</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
   </si>
   <si>
     <t>MLP 16</t>
@@ -438,19 +438,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4959</v>
+        <v>0.5192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4959</v>
+        <v>0.5192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.919</v>
+        <v>0.9245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6654</v>
+        <v>0.6441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7446</v>
+        <v>0.7349</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +458,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4876</v>
+        <v>0.4835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4876</v>
+        <v>0.4835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9176</v>
+        <v>0.919</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6597</v>
+        <v>0.6583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7446</v>
+        <v>0.7389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,13 +484,13 @@
         <v>0.478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9107</v>
+        <v>0.9176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6785</v>
+        <v>0.6674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7897999999999999</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,19 +498,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5027</v>
+        <v>0.4959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5027</v>
+        <v>0.4959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9107</v>
+        <v>0.9025</v>
       </c>
       <c r="E5" t="n">
-        <v>0.661</v>
+        <v>0.6714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7613</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/features2prediction/weebit/regression_evaluation.xlsx
+++ b/features2prediction/weebit/regression_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -29,16 +29,19 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
-    <t>mean_squared_error</t>
+    <t>explained_variance_score</t>
+  </si>
+  <si>
+    <t>r2_score</t>
+  </si>
+  <si>
+    <t>MLP 128</t>
+  </si>
+  <si>
+    <t>MLP 16</t>
   </si>
   <si>
     <t>MLP 64</t>
-  </si>
-  <si>
-    <t>MLP 128</t>
-  </si>
-  <si>
-    <t>MLP 16</t>
   </si>
   <si>
     <t>MLP 32</t>
@@ -408,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,90 +435,105 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5192</v>
+        <v>0.5165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5192</v>
+        <v>0.5165</v>
       </c>
       <c r="D2" t="n">
         <v>0.9245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6441</v>
+        <v>0.6471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.6246</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4835</v>
+        <v>0.4725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4835</v>
+        <v>0.4725</v>
       </c>
       <c r="D3" t="n">
-        <v>0.919</v>
+        <v>0.9135</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6583</v>
+        <v>0.6818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.5996</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.478</v>
+        <v>0.4808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.478</v>
+        <v>0.4808</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9176</v>
+        <v>0.9135</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6674</v>
+        <v>0.6697</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.6128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4959</v>
+        <v>0.4643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4959</v>
+        <v>0.4643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9025</v>
+        <v>0.9052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6714</v>
+        <v>0.6797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.603</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.4505</v>
@@ -530,12 +548,15 @@
         <v>0.6981000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.5737</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.3956</v>
@@ -550,12 +571,15 @@
         <v>0.8024</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.4779</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>0.4148</v>
@@ -570,12 +594,15 @@
         <v>0.7909</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.4759</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>0.3956</v>
@@ -590,12 +617,15 @@
         <v>0.8022</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.4781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>0.397</v>
@@ -610,12 +640,15 @@
         <v>0.8016</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.4788</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>0.3118</v>
@@ -630,7 +663,10 @@
         <v>0.9467</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3639</v>
+        <v>0.3053</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2947</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/regression_evaluation.xlsx
+++ b/features2prediction/weebit/regression_evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>accuracy_score</t>
   </si>
@@ -29,24 +29,33 @@
     <t>mean_absolute_error</t>
   </si>
   <si>
+    <t>mean_squared_error</t>
+  </si>
+  <si>
     <t>explained_variance_score</t>
   </si>
   <si>
     <t>r2_score</t>
   </si>
   <si>
+    <t>MLP 16</t>
+  </si>
+  <si>
+    <t>MLP-deep</t>
+  </si>
+  <si>
+    <t>MLP 32</t>
+  </si>
+  <si>
+    <t>SVR rbf</t>
+  </si>
+  <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
     <t>MLP 128</t>
   </si>
   <si>
-    <t>MLP 16</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
-    <t>MLP 32</t>
-  </si>
-  <si>
     <t>GradientBoostingRegressor</t>
   </si>
   <si>
@@ -62,7 +71,10 @@
     <t>LassoCV</t>
   </si>
   <si>
-    <t>SVR</t>
+    <t>SVR sigmoid</t>
+  </si>
+  <si>
+    <t>SVR poly</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,171 +450,195 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5165</v>
+        <v>0.4904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5165</v>
+        <v>0.4904</v>
       </c>
       <c r="D2" t="n">
         <v>0.9245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6471</v>
+        <v>0.6703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6246</v>
+        <v>0.7625999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.606</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4725</v>
+        <v>0.5687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4725</v>
+        <v>0.5687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9135</v>
+        <v>0.9203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6818</v>
+        <v>0.6063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5996</v>
+        <v>0.7189</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.6302</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4808</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4808</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9135</v>
+        <v>0.9162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6697</v>
+        <v>0.6625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6128</v>
+        <v>0.7403999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.6179</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4643</v>
+        <v>0.4588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4643</v>
+        <v>0.4588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9052</v>
+        <v>0.9162</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6797</v>
+        <v>0.672</v>
       </c>
       <c r="F5" t="n">
-        <v>0.603</v>
+        <v>0.7733</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.6002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
+        <v>0.5192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6614</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9093</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6803</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.4505</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>0.4505</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>0.8997000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>0.6981000000000001</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
+        <v>0.8244</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.5737</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H8" t="n">
         <v>0.5737</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3956</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3956</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8819</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8024</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4779</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4148</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4148</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8819</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7909</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0.3956</v>
@@ -614,59 +650,146 @@
         <v>0.8819</v>
       </c>
       <c r="E9" t="n">
+        <v>0.8024</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4779</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8819</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7909</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.0135</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8819</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.8022</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
+        <v>1.0098</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4781</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H11" t="n">
         <v>0.4778</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.397</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>0.397</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>0.8804999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E12" t="n">
         <v>0.8016</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
+        <v>1.0086</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4788</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H12" t="n">
         <v>0.4784</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.3118</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>0.3118</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>0.7843</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>0.9467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F13" t="n">
+        <v>1.3639</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3053</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H13" t="n">
         <v>0.2947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2802</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2802</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0169</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/regression_evaluation.xlsx
+++ b/features2prediction/weebit/regression_evaluation.xlsx
@@ -38,34 +38,34 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>MLP-deep</t>
+  </si>
+  <si>
+    <t>MLP 128</t>
+  </si>
+  <si>
     <t>MLP 16</t>
   </si>
   <si>
-    <t>MLP-deep</t>
-  </si>
-  <si>
     <t>MLP 32</t>
   </si>
   <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
     <t>SVR rbf</t>
   </si>
   <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
-    <t>MLP 128</t>
+    <t>LinearRegression</t>
+  </si>
+  <si>
+    <t>LinearSVR</t>
+  </si>
+  <si>
+    <t>RidgeCV</t>
   </si>
   <si>
     <t>GradientBoostingRegressor</t>
-  </si>
-  <si>
-    <t>LinearRegression</t>
-  </si>
-  <si>
-    <t>LinearSVR</t>
-  </si>
-  <si>
-    <t>RidgeCV</t>
   </si>
   <si>
     <t>LassoCV</t>
@@ -459,25 +459,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4904</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4904</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9245</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6703</v>
+        <v>0.5367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7625999999999999</v>
+        <v>0.5779</v>
       </c>
       <c r="G2" t="n">
-        <v>0.606</v>
+        <v>0.7018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6056</v>
+        <v>0.7010999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,25 +485,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5687</v>
+        <v>0.5412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5687</v>
+        <v>0.5412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9203</v>
+        <v>0.9409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6063</v>
+        <v>0.594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7189</v>
+        <v>0.6035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6302</v>
+        <v>0.6894</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6282</v>
+        <v>0.6879</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,25 +511,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.5302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.5302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9162</v>
+        <v>0.9382</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6625</v>
+        <v>0.6158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7403999999999999</v>
+        <v>0.6322</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6179</v>
+        <v>0.6731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6171</v>
+        <v>0.6731</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,25 +537,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4588</v>
+        <v>0.5371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4588</v>
+        <v>0.5371</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9162</v>
+        <v>0.9354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.672</v>
+        <v>0.6151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7733</v>
+        <v>0.6466</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6002</v>
+        <v>0.6666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6001</v>
+        <v>0.6656</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -563,25 +563,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5192</v>
+        <v>0.5646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5192</v>
+        <v>0.5646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9121</v>
+        <v>0.9354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6614</v>
+        <v>0.5927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7587</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6079</v>
+        <v>0.6876</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6076</v>
+        <v>0.6853</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -589,25 +589,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4821</v>
+        <v>0.5206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4821</v>
+        <v>0.5206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9093</v>
+        <v>0.9258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6803</v>
+        <v>0.6096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.77</v>
+        <v>0.639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6018</v>
+        <v>0.6697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6018</v>
+        <v>0.6695</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -615,25 +615,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4505</v>
+        <v>0.4533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4505</v>
+        <v>0.4533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.9147999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6981000000000001</v>
+        <v>0.7194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8244</v>
+        <v>0.8163</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5737</v>
+        <v>0.5784</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5737</v>
+        <v>0.5778</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -641,25 +641,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3956</v>
+        <v>0.4808</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3956</v>
+        <v>0.4808</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8819</v>
+        <v>0.9121</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8024</v>
+        <v>0.7091</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0102</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4779</v>
+        <v>0.5796</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4776</v>
+        <v>0.5796</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -667,25 +667,25 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4148</v>
+        <v>0.456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4148</v>
+        <v>0.456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8819</v>
+        <v>0.9121</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7909</v>
+        <v>0.7186</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0135</v>
+        <v>0.8117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4759</v>
+        <v>0.5808</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4759</v>
+        <v>0.5802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -693,25 +693,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3956</v>
+        <v>0.4973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3956</v>
+        <v>0.4973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8819</v>
+        <v>0.9107</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8022</v>
+        <v>0.6563</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0098</v>
+        <v>0.7339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4781</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4778</v>
+        <v>0.6205000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -719,25 +719,25 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397</v>
+        <v>0.4615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.397</v>
+        <v>0.4615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.9066</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8016</v>
+        <v>0.717</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0086</v>
+        <v>0.8115</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4788</v>
+        <v>0.5809</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4784</v>
+        <v>0.5803</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -745,25 +745,25 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3118</v>
+        <v>0.3187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3118</v>
+        <v>0.3187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7843</v>
+        <v>0.8269</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9467</v>
+        <v>0.9006</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3639</v>
+        <v>1.2235</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3053</v>
+        <v>0.3845</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2947</v>
+        <v>0.3673</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -771,25 +771,25 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2802</v>
+        <v>0.283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2802</v>
+        <v>0.283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7514</v>
+        <v>0.7706</v>
       </c>
       <c r="E14" t="n">
-        <v>1.011</v>
+        <v>0.9792999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1.901</v>
+        <v>2.1647</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0171</v>
+        <v>-0.1195</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0169</v>
+        <v>-0.1195</v>
       </c>
     </row>
   </sheetData>

--- a/features2prediction/weebit/regression_evaluation.xlsx
+++ b/features2prediction/weebit/regression_evaluation.xlsx
@@ -38,37 +38,37 @@
     <t>r2_score</t>
   </si>
   <si>
+    <t>MLP 128</t>
+  </si>
+  <si>
+    <t>MLP 64</t>
+  </si>
+  <si>
+    <t>MLP 32</t>
+  </si>
+  <si>
+    <t>MLP 16</t>
+  </si>
+  <si>
     <t>MLP-deep</t>
   </si>
   <si>
-    <t>MLP 128</t>
-  </si>
-  <si>
-    <t>MLP 16</t>
-  </si>
-  <si>
-    <t>MLP 32</t>
-  </si>
-  <si>
-    <t>MLP 64</t>
-  </si>
-  <si>
     <t>SVR rbf</t>
   </si>
   <si>
+    <t>GradientBoostingRegressor</t>
+  </si>
+  <si>
+    <t>LinearSVR</t>
+  </si>
+  <si>
     <t>LinearRegression</t>
   </si>
   <si>
-    <t>LinearSVR</t>
+    <t>LassoCV</t>
   </si>
   <si>
     <t>RidgeCV</t>
-  </si>
-  <si>
-    <t>GradientBoostingRegressor</t>
-  </si>
-  <si>
-    <t>LassoCV</t>
   </si>
   <si>
     <t>SVR sigmoid</t>
@@ -459,25 +459,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9451000000000001</v>
+        <v>0.9409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5367</v>
+        <v>0.5999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5779</v>
+        <v>0.5908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7018</v>
+        <v>0.6951000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.6945</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,25 +485,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5412</v>
+        <v>0.5522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5412</v>
+        <v>0.5522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9409</v>
+        <v>0.9382</v>
       </c>
       <c r="E3" t="n">
-        <v>0.594</v>
+        <v>0.5971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6035</v>
+        <v>0.6146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6894</v>
+        <v>0.6822</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6879</v>
+        <v>0.6822</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,25 +511,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5302</v>
+        <v>0.5165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5302</v>
+        <v>0.5165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9382</v>
+        <v>0.9341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6158</v>
+        <v>0.6252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6322</v>
+        <v>0.6409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6731</v>
+        <v>0.6715</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6731</v>
+        <v>0.6686</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,25 +537,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5371</v>
+        <v>0.544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5371</v>
+        <v>0.544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9354</v>
+        <v>0.9327</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6151</v>
+        <v>0.5961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6466</v>
+        <v>0.6132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6666</v>
+        <v>0.6829</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6656</v>
+        <v>0.6829</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -563,25 +563,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5646</v>
+        <v>0.5975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5646</v>
+        <v>0.5975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9354</v>
+        <v>0.9327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5927</v>
+        <v>0.5397</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.5753</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6876</v>
+        <v>0.703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6853</v>
+        <v>0.7025</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -589,25 +589,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5206</v>
+        <v>0.5151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5206</v>
+        <v>0.5151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9258</v>
+        <v>0.9313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6096</v>
+        <v>0.6131</v>
       </c>
       <c r="F7" t="n">
-        <v>0.639</v>
+        <v>0.6437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6697</v>
+        <v>0.6672</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6695</v>
+        <v>0.6671</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -615,25 +615,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4533</v>
+        <v>0.4698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4533</v>
+        <v>0.4698</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9203</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7194</v>
+        <v>0.6637999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8163</v>
+        <v>0.7279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5784</v>
+        <v>0.6237</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5778</v>
+        <v>0.6236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -641,25 +641,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4808</v>
+        <v>0.4753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4808</v>
+        <v>0.4753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9121</v>
+        <v>0.9147999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7091</v>
+        <v>0.7088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5796</v>
+        <v>0.5824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5796</v>
+        <v>0.5824</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -667,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.456</v>
+        <v>0.4533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.456</v>
+        <v>0.4533</v>
       </c>
       <c r="D10" t="n">
         <v>0.9121</v>
@@ -679,13 +679,13 @@
         <v>0.7186</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8117</v>
+        <v>0.8133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5808</v>
+        <v>0.58</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5802</v>
+        <v>0.5794</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -693,25 +693,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4973</v>
+        <v>0.4547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4973</v>
+        <v>0.4547</v>
       </c>
       <c r="D11" t="n">
         <v>0.9107</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6563</v>
+        <v>0.7185</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7339</v>
+        <v>0.8115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6205000000000001</v>
+        <v>0.581</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6205000000000001</v>
+        <v>0.5804</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -719,25 +719,25 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4615</v>
+        <v>0.4519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4615</v>
+        <v>0.4519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9066</v>
+        <v>0.9093</v>
       </c>
       <c r="E12" t="n">
-        <v>0.717</v>
+        <v>0.7187</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8115</v>
+        <v>0.8123</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5809</v>
+        <v>0.5805</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5803</v>
+        <v>0.5799</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -745,25 +745,25 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3187</v>
+        <v>0.3132</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3187</v>
+        <v>0.3132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8269</v>
+        <v>0.8201000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9006</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2235</v>
+        <v>1.2051</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3845</v>
+        <v>0.3895</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3673</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -771,25 +771,25 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283</v>
+        <v>0.2898</v>
       </c>
       <c r="C14" t="n">
-        <v>0.283</v>
+        <v>0.2898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7706</v>
+        <v>0.7802</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9792999999999999</v>
+        <v>0.9651</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1647</v>
+        <v>1.8467</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1195</v>
+        <v>0.0451</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1195</v>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>
